--- a/tests/robot_framework/files/inquiries/productierapport4.xlsx
+++ b/tests/robot_framework/files/inquiries/productierapport4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/inquiries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED49E4-6551-D64C-A60D-11D27EF027B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACFF90-565E-0F4C-B9B6-2BD19D247C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33680" yWindow="2700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>huppeldepup.docx</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -158,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,8 +576,8 @@
       <c r="A2">
         <v>3301</v>
       </c>
-      <c r="B2">
-        <v>9</v>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -598,8 +602,8 @@
       <c r="A3">
         <v>3302</v>
       </c>
-      <c r="B3">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D3">
         <v>232004</v>
@@ -627,8 +631,8 @@
       <c r="A4">
         <v>3303</v>
       </c>
-      <c r="B4">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D4">
         <v>232005</v>
@@ -651,10 +655,16 @@
       <c r="N4" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
